--- a/Plotting/production_shares_olefins_Scope1-3.xlsx
+++ b/Plotting/production_shares_olefins_Scope1-3.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1287902.293595003</v>
+        <v>3863706.88078501</v>
       </c>
       <c r="D8" t="n">
-        <v>1406861.879727435</v>
+        <v>5627447.51890974</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1187536.510541698</v>
+        <v>3562609.531625094</v>
       </c>
       <c r="G8" t="n">
-        <v>1188408.185213571</v>
+        <v>4753632.740854284</v>
       </c>
     </row>
     <row r="9">
@@ -651,22 +651,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1717310</v>
+        <v>8586550.000000002</v>
       </c>
       <c r="C9" t="n">
-        <v>429407.7064050043</v>
+        <v>3927509.509801868</v>
       </c>
       <c r="D9" t="n">
-        <v>310448.1202725649</v>
+        <v>3785952.686250791</v>
       </c>
       <c r="E9" t="n">
-        <v>845075.5262215403</v>
+        <v>12882248.87532836</v>
       </c>
       <c r="F9" t="n">
-        <v>529773.4894583018</v>
+        <v>4845489.232850321</v>
       </c>
       <c r="G9" t="n">
-        <v>528901.8147864268</v>
+        <v>6450022.13154179</v>
       </c>
     </row>
     <row r="10">
@@ -741,6 +741,106 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Electrification + Bio-based feedstock</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Conventional + Bio-based feedstock</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Conventional + Bio-based feedstock with CC</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Electrification + Bio-based</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Plotting/production_shares_olefins_Scope1-3.xlsx
+++ b/Plotting/production_shares_olefins_Scope1-3.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,13 @@
       </c>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -518,6 +525,21 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -543,6 +565,15 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -568,6 +599,15 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -593,6 +633,15 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -618,6 +667,15 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -638,10 +696,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3562609.531625094</v>
+        <v>3578805.827953214</v>
       </c>
       <c r="G8" t="n">
-        <v>4753632.740854284</v>
+        <v>4753635.692924779</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3578619.122546162</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4753634.304849698</v>
       </c>
     </row>
     <row r="9">
@@ -660,13 +727,22 @@
         <v>3785952.686250791</v>
       </c>
       <c r="E9" t="n">
-        <v>12882248.87532836</v>
+        <v>12838645.42235728</v>
       </c>
       <c r="F9" t="n">
-        <v>4845489.232850321</v>
+        <v>4796110.280630245</v>
       </c>
       <c r="G9" t="n">
-        <v>6450022.13154179</v>
+        <v>6450013.131326955</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12859147.93557862</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4796679.504432956</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6450017.363263102</v>
       </c>
     </row>
     <row r="10">
@@ -693,6 +769,15 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -710,12 +795,21 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.22018093436912e-07</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -743,6 +837,15 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -768,6 +871,15 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -793,6 +905,15 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -818,6 +939,15 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -843,9 +973,19 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>

--- a/Plotting/production_shares_olefins_Scope1-3.xlsx
+++ b/Plotting/production_shares_olefins_Scope1-3.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,27 @@
       </c>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_4</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_5</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -540,6 +561,51 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -574,6 +640,33 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -608,6 +701,33 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -642,6 +762,33 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -676,6 +823,33 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -710,6 +884,33 @@
       <c r="J8" t="n">
         <v>4753634.304849698</v>
       </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2939476.181780299</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4753682.583935678</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3556062.637552082</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4753634.260821007</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2938140.333093762</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4753391.494946638</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -744,6 +945,33 @@
       <c r="J9" t="n">
         <v>6450017.363263102</v>
       </c>
+      <c r="K9" t="n">
+        <v>12883863.3233789</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3325241.373589423</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6449870.170927788</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12859798.25098664</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4865449.27575592</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6450017.49749695</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>12873149.56277529</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3329314.082999473</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6450757.639224648</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -778,6 +1006,33 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -812,6 +1067,33 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
+      <c r="K11" t="n">
+        <v>4.349772098066751e-08</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.872993111593766e-06</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.870135856232081e-07</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -846,6 +1128,33 @@
       <c r="J12" t="n">
         <v>0</v>
       </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -880,6 +1189,33 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -914,6 +1250,33 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -948,6 +1311,33 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -982,12 +1372,42 @@
       <c r="J16" t="n">
         <v>0</v>
       </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Plotting/production_shares_olefins_Scope1-3.xlsx
+++ b/Plotting/production_shares_olefins_Scope1-3.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,20 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -496,6 +510,36 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -512,6 +556,24 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -528,6 +590,24 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -536,13 +616,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-2.235549776991508e-09</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1401265.181013603</v>
+      </c>
+      <c r="F6" t="n">
+        <v>602827.8937104597</v>
+      </c>
+      <c r="G6" t="n">
+        <v>221185.4197186728</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1401265.18101358</v>
+      </c>
+      <c r="I6" t="n">
+        <v>603806.4382143666</v>
+      </c>
+      <c r="J6" t="n">
+        <v>222160.8795700106</v>
       </c>
     </row>
     <row r="7">
@@ -560,6 +658,24 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -571,10 +687,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3857490.851502215</v>
+        <v>1205602.936901787</v>
       </c>
       <c r="D8" t="n">
-        <v>5886904.984097974</v>
+        <v>1205602.936901779</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>832311.6761443499</v>
+      </c>
+      <c r="G8" t="n">
+        <v>894271.2363347108</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>831090.3558850527</v>
+      </c>
+      <c r="J8" t="n">
+        <v>892473.7149865876</v>
       </c>
     </row>
     <row r="9">
@@ -584,13 +718,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8586550.000000002</v>
+        <v>1717310</v>
       </c>
       <c r="C9" t="n">
-        <v>3946460.818590762</v>
+        <v>15814.1753639676</v>
       </c>
       <c r="D9" t="n">
-        <v>2994923.828969546</v>
+        <v>-1.136217926629919e-10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>316335.4517647082</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-6.340789397460244e-11</v>
+      </c>
+      <c r="H9" t="n">
+        <v>316335.4517647056</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-7.024058041087535e-11</v>
       </c>
     </row>
     <row r="10">
@@ -603,10 +755,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>495892.8877342517</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>511707.0630982184</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>282295.4611157335</v>
+      </c>
+      <c r="G10" t="n">
+        <v>601899.2194410748</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>282538.4398285086</v>
+      </c>
+      <c r="J10" t="n">
+        <v>602721.4832554583</v>
       </c>
     </row>
     <row r="11">
@@ -624,6 +794,24 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -640,6 +828,24 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -656,6 +862,24 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -672,6 +896,24 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -688,6 +930,24 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -704,10 +964,30 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
